--- a/data/scheduling_DNN/predict/0.5/result2.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result2.xlsx
@@ -570,10 +570,10 @@
         <v>0.9916858673095703</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.4032770693302155</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2361278086900711</v>
+        <v>0.3462249338626862</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9211750030517578</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.8672659993171692</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2979702353477478</v>
+        <v>0.002906180685386062</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9280319213867188</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.3987350761890411</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1350105702877045</v>
+        <v>0.2801551818847656</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.889070987701416</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.4022188186645508</v>
       </c>
       <c r="W5" t="n">
-        <v>0.257967621088028</v>
+        <v>0.2370250374078751</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.888267993927002</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.5149244070053101</v>
       </c>
       <c r="W6" t="n">
-        <v>0.005212056916207075</v>
+        <v>0.1393854320049286</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>1.000292062759399</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.3975247144699097</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3045808672904968</v>
+        <v>0.3633284866809845</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8877770900726318</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.8612817525863647</v>
       </c>
       <c r="W8" t="n">
-        <v>0.005441790912300348</v>
+        <v>0.0007020029006525874</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8811600208282471</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.5149906873703003</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2813154757022858</v>
+        <v>0.1340799778699875</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8736119270324707</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.4010505378246307</v>
       </c>
       <c r="W10" t="n">
-        <v>0.004251798149198294</v>
+        <v>0.2233142703771591</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9275040626525879</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.8765983581542969</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1811936050653458</v>
+        <v>0.002591390861198306</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.884213924407959</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.5146849155426025</v>
       </c>
       <c r="W12" t="n">
-        <v>0.144985631108284</v>
+        <v>0.1365516930818558</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8806459903717041</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.8805124163627625</v>
       </c>
       <c r="W13" t="n">
-        <v>0.05092430487275124</v>
+        <v>1.78420158647441e-08</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8734869956970215</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.8615351319313049</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2207246720790863</v>
+        <v>0.0001428470422979444</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9495861530303955</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.8748337626457214</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1899863332509995</v>
+        <v>0.00558792008087039</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8761191368103027</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.5162937641143799</v>
       </c>
       <c r="W16" t="n">
-        <v>0.142027884721756</v>
+        <v>0.1294742971658707</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8905940055847168</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.8805891871452332</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04775392636656761</v>
+        <v>0.0001000963893602602</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8991920948028564</v>
       </c>
       <c r="V18" t="n">
-        <v>0.654166579246521</v>
+        <v>0.5163593292236328</v>
       </c>
       <c r="W18" t="n">
-        <v>0.06003750488162041</v>
+        <v>0.1465609222650528</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9204249382019043</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8584833741188049</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1639601439237595</v>
+        <v>0.003836757270619273</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8748209476470947</v>
       </c>
       <c r="V20" t="n">
-        <v>0.350454181432724</v>
+        <v>0.8625540137290955</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2749604880809784</v>
+        <v>0.0001504776737419888</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8815410137176514</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.541536808013916</v>
       </c>
       <c r="W21" t="n">
-        <v>0.004839114844799042</v>
+        <v>0.1156028583645821</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5284049510955811</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.4017450511455536</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0006540400790981948</v>
+        <v>0.01604272983968258</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5935308933258057</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.3974917531013489</v>
       </c>
       <c r="W23" t="n">
-        <v>0.002693934831768274</v>
+        <v>0.03843134269118309</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5308539867401123</v>
       </c>
       <c r="V24" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.8687149882316589</v>
       </c>
       <c r="W24" t="n">
-        <v>0.06349737942218781</v>
+        <v>0.1141500547528267</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5214569568634033</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.8613021373748779</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0138695165514946</v>
+        <v>0.1154947504401207</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5228891372680664</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.4034180641174316</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02175942622125149</v>
+        <v>0.0142733370885253</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.518895149230957</v>
       </c>
       <c r="V27" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.9002062082290649</v>
       </c>
       <c r="W27" t="n">
-        <v>0.1838455051183701</v>
+        <v>0.1453981250524521</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5213980674743652</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.4108873307704926</v>
       </c>
       <c r="W28" t="n">
-        <v>0.02120724692940712</v>
+        <v>0.01221262291073799</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5304169654846191</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.8687290549278259</v>
       </c>
       <c r="W29" t="n">
-        <v>1.646981036174111e-05</v>
+        <v>0.1144550666213036</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5278398990631104</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.5002273917198181</v>
       </c>
       <c r="W30" t="n">
-        <v>0.005241410806775093</v>
+        <v>0.0007624505669809878</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5197110176086426</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.5022150278091431</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02853691019117832</v>
+        <v>0.0003061096649616957</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5422959327697754</v>
       </c>
       <c r="V32" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.3992106020450592</v>
       </c>
       <c r="W32" t="n">
-        <v>0.05827827751636505</v>
+        <v>0.02047341130673885</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5196170806884766</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.504310131072998</v>
       </c>
       <c r="W33" t="n">
-        <v>0.004754328168928623</v>
+        <v>0.000234302700846456</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5820798873901367</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.4975394308567047</v>
       </c>
       <c r="W34" t="n">
-        <v>0.04286477714776993</v>
+        <v>0.007147088646888733</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5236070156097412</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.8735047578811646</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0003149956755805761</v>
+        <v>0.1224284321069717</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5195930004119873</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4989356398582458</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02920843474566936</v>
+        <v>0.0004267265321686864</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.517693042755127</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.5019794106483459</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01558122131973505</v>
+        <v>0.0002469182363711298</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5187339782714844</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.8682300448417664</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01496452931314707</v>
+        <v>0.1221475005149841</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5755329132080078</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.8737673759460449</v>
       </c>
       <c r="W39" t="n">
-        <v>0.03835613280534744</v>
+        <v>0.08894379436969757</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5208890438079834</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.4015448689460754</v>
       </c>
       <c r="W40" t="n">
-        <v>0.001875734305940568</v>
+        <v>0.01424303185194731</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5241158008575439</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.4009639620780945</v>
       </c>
       <c r="W41" t="n">
-        <v>5.610068183159456e-05</v>
+        <v>0.01516637578606606</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3925778865814209</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.402260959148407</v>
       </c>
       <c r="W42" t="n">
-        <v>0.06354743242263794</v>
+        <v>9.376189700560644e-05</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4156990051269531</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.4022718966007233</v>
       </c>
       <c r="W43" t="n">
-        <v>0.001267729676328599</v>
+        <v>0.0001802872429834679</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3903460502624512</v>
       </c>
       <c r="V44" t="n">
-        <v>0.656647801399231</v>
+        <v>0.3973492085933685</v>
       </c>
       <c r="W44" t="n">
-        <v>0.07091662287712097</v>
+        <v>4.904422530671582e-05</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.4438190460205078</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.5001695156097412</v>
       </c>
       <c r="W45" t="n">
-        <v>0.001142583438195288</v>
+        <v>0.003175375517457724</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3913009166717529</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.4901991188526154</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07884474843740463</v>
+        <v>0.009780853986740112</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3969211578369141</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.4933151602745056</v>
       </c>
       <c r="W47" t="n">
-        <v>0.06729844957590103</v>
+        <v>0.00929180346429348</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3907520771026611</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.8988482356071472</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1756651401519775</v>
+        <v>0.2581616938114166</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3896410465240479</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.8600837588310242</v>
       </c>
       <c r="W49" t="n">
-        <v>0.08582237362861633</v>
+        <v>0.2213163524866104</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3947868347167969</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.3973541557788849</v>
       </c>
       <c r="W50" t="n">
-        <v>7.776659185765311e-05</v>
+        <v>6.591137662326219e-06</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.4413139820098877</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.397336333990097</v>
       </c>
       <c r="W51" t="n">
-        <v>0.02173970080912113</v>
+        <v>0.001934033469296992</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.391103982925415</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.4226338565349579</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01183103211224079</v>
+        <v>0.0009941329481080174</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3897881507873535</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.5068095922470093</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0001922380615724251</v>
+        <v>0.01369401812553406</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.389495849609375</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.517845094203949</v>
       </c>
       <c r="W54" t="n">
-        <v>0.06920851767063141</v>
+        <v>0.01647352799773216</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4282548427581787</v>
       </c>
       <c r="V55" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.8810775279998779</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1458132565021515</v>
+        <v>0.2050483822822571</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3909649848937988</v>
       </c>
       <c r="V56" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.4996528625488281</v>
       </c>
       <c r="W56" t="n">
-        <v>0.1733925044536591</v>
+        <v>0.01181305479258299</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.388045072555542</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.4015381336212158</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03023602999746799</v>
+        <v>0.0001820626930566505</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3997049331665039</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.8741751313209534</v>
       </c>
       <c r="W58" t="n">
-        <v>1.536023773951456e-05</v>
+        <v>0.2251219749450684</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.38932204246521</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.403344988822937</v>
       </c>
       <c r="W59" t="n">
-        <v>0.0343959741294384</v>
+        <v>0.0001966430281754583</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3894951343536377</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.873346209526062</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01332738716155291</v>
+        <v>0.2341118603944778</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3905701637268066</v>
       </c>
       <c r="V61" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.4022312462329865</v>
       </c>
       <c r="W61" t="n">
-        <v>0.3088001906871796</v>
+        <v>0.0001359808520646766</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8709721565246582</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8583290576934814</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1371953338384628</v>
+        <v>0.0001598479429958388</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.932124137878418</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.8735287189483643</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1633901298046112</v>
+        <v>0.003433423116803169</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8726570606231689</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4022181928157806</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2723473906517029</v>
+        <v>0.2213127315044403</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8706390857696533</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.4946295619010925</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1084578335285187</v>
+        <v>0.1413831561803818</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8687129020690918</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.4926484823226929</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2163404077291489</v>
+        <v>0.1414244472980499</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.959338903427124</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.4903643131256104</v>
       </c>
       <c r="W67" t="n">
-        <v>0.3087849318981171</v>
+        <v>0.2199371606111526</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8837869167327881</v>
       </c>
       <c r="V68" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.4234457910060883</v>
       </c>
       <c r="W68" t="n">
-        <v>0.2840992212295532</v>
+        <v>0.2119139581918716</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.876384973526001</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.401487410068512</v>
       </c>
       <c r="W69" t="n">
-        <v>0.08968003839254379</v>
+        <v>0.2255276888608932</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8652999401092529</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.39735347032547</v>
       </c>
       <c r="W70" t="n">
-        <v>0.04956561326980591</v>
+        <v>0.2189739048480988</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9089839458465576</v>
       </c>
       <c r="V71" t="n">
-        <v>0.672019362449646</v>
+        <v>0.5092275142669678</v>
       </c>
       <c r="W71" t="n">
-        <v>0.05615221336483955</v>
+        <v>0.1598052084445953</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8926680088043213</v>
       </c>
       <c r="V72" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.8730546236038208</v>
       </c>
       <c r="W72" t="n">
-        <v>0.002863085130229592</v>
+        <v>0.0003846848849207163</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8716881275177002</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.4112436771392822</v>
       </c>
       <c r="W73" t="n">
-        <v>0.09653252363204956</v>
+        <v>0.2120090872049332</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8626980781555176</v>
       </c>
       <c r="V74" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.4311245083808899</v>
       </c>
       <c r="W74" t="n">
-        <v>0.2603746354579926</v>
+        <v>0.1862557530403137</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8734109401702881</v>
       </c>
       <c r="V75" t="n">
-        <v>0.381181538105011</v>
+        <v>0.5027014017105103</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2422897815704346</v>
+        <v>0.1374255567789078</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8689100742340088</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.5154868960380554</v>
       </c>
       <c r="W76" t="n">
-        <v>0.07859496772289276</v>
+        <v>0.1249079406261444</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8892970085144043</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.4033332467079163</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1079235523939133</v>
+        <v>0.2361607849597931</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9593110084533691</v>
       </c>
       <c r="V78" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.8690223693847656</v>
       </c>
       <c r="W78" t="n">
-        <v>0.031186668202281</v>
+        <v>0.008152038790285587</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8728041648864746</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.895607054233551</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2728599309921265</v>
+        <v>0.0005199717707000673</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8634531497955322</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.5082294940948486</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1127301305532455</v>
+        <v>0.1261838525533676</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8643980026245117</v>
       </c>
       <c r="V81" t="n">
-        <v>0.54131019115448</v>
+        <v>0.8620971441268921</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1043857336044312</v>
+        <v>5.293949925544439e-06</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5424051284790039</v>
       </c>
       <c r="V82" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.9002982974052429</v>
       </c>
       <c r="W82" t="n">
-        <v>0.05782653391361237</v>
+        <v>0.1280875205993652</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5236480236053467</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.4982991218566895</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0166960246860981</v>
+        <v>0.0006425668252632022</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5245778560638428</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.412398487329483</v>
       </c>
       <c r="W84" t="n">
-        <v>9.396516543347389e-05</v>
+        <v>0.01258421037346125</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5231480598449707</v>
       </c>
       <c r="V85" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.4097771942615509</v>
       </c>
       <c r="W85" t="n">
-        <v>0.01441682875156403</v>
+        <v>0.01285295281559229</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5167958736419678</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.8936132788658142</v>
       </c>
       <c r="W86" t="n">
-        <v>0.02702884376049042</v>
+        <v>0.1419913619756699</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5192520618438721</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.515034556388855</v>
       </c>
       <c r="W87" t="n">
-        <v>0.000480187067296356</v>
+        <v>1.778735168045387e-05</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5455319881439209</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.3973292410373688</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0009611932910047472</v>
+        <v>0.02196405455470085</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5186169147491455</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.4946695268154144</v>
       </c>
       <c r="W89" t="n">
-        <v>1.010499181575142e-05</v>
+        <v>0.0005734774167649448</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5207908153533936</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.8698707222938538</v>
       </c>
       <c r="W90" t="n">
-        <v>0.000274346733931452</v>
+        <v>0.1218567788600922</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5233290195465088</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.8653307557106018</v>
       </c>
       <c r="W91" t="n">
-        <v>0.01392943784594536</v>
+        <v>0.116965189576149</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5206360816955566</v>
       </c>
       <c r="V92" t="n">
-        <v>0.654965877532959</v>
+        <v>0.3973413705825806</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01804449409246445</v>
+        <v>0.01520158536732197</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5774619579315186</v>
       </c>
       <c r="V93" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.8800603151321411</v>
       </c>
       <c r="W93" t="n">
-        <v>0.03866329789161682</v>
+        <v>0.09156576544046402</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5187199115753174</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.4982670545578003</v>
       </c>
       <c r="W94" t="n">
-        <v>0.0002863943227566779</v>
+        <v>0.0004183193668723106</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5224220752716064</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.5149133205413818</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01410107593983412</v>
+        <v>5.638139919028617e-05</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.519157886505127</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.4230386018753052</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0004940999788232148</v>
+        <v>0.009238916449248791</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5225269794464111</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.3973468542098999</v>
       </c>
       <c r="W97" t="n">
-        <v>0.02949962206184864</v>
+        <v>0.01567006297409534</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5172939300537109</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.3993577659130096</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0001131695535150357</v>
+        <v>0.0139089385047555</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5207340717315674</v>
       </c>
       <c r="V99" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4992759823799133</v>
       </c>
       <c r="W99" t="n">
-        <v>0.08990651369094849</v>
+        <v>0.000460449606180191</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.524090051651001</v>
       </c>
       <c r="V100" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.8762576580047607</v>
       </c>
       <c r="W100" t="n">
-        <v>0.1750181019306183</v>
+        <v>0.1240220218896866</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5229711532592773</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.4096135497093201</v>
       </c>
       <c r="W101" t="n">
-        <v>7.883568468969315e-05</v>
+        <v>0.01284994650632143</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4033019542694092</v>
       </c>
       <c r="V102" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4100346565246582</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01234974432736635</v>
+        <v>4.532928141998127e-05</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4017729759216309</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.4023856222629547</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0577421709895134</v>
+        <v>3.753355315438966e-07</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4654269218444824</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.8670316338539124</v>
       </c>
       <c r="W104" t="n">
-        <v>0.01314612198621035</v>
+        <v>0.1612863391637802</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.413193941116333</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.3973330557346344</v>
       </c>
       <c r="W105" t="n">
-        <v>0.02201720327138901</v>
+        <v>0.0002515676897019148</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3906929492950439</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.4898052513599396</v>
       </c>
       <c r="W106" t="n">
-        <v>0.09399725496768951</v>
+        <v>0.009823248721659184</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3898088932037354</v>
       </c>
       <c r="V107" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.8691176176071167</v>
       </c>
       <c r="W107" t="n">
-        <v>0.1768850535154343</v>
+        <v>0.2297368496656418</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3906929492950439</v>
       </c>
       <c r="V108" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.3973407745361328</v>
       </c>
       <c r="W108" t="n">
-        <v>0.3061078190803528</v>
+        <v>4.419358083396219e-05</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3907661437988281</v>
       </c>
       <c r="V109" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.5153535604476929</v>
       </c>
       <c r="W109" t="n">
-        <v>0.001599193550646305</v>
+        <v>0.01552202459424734</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4159150123596191</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.423496276140213</v>
       </c>
       <c r="W110" t="n">
-        <v>0.05702153593301773</v>
+        <v>5.747556133428589e-05</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3939800262451172</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.5414415597915649</v>
       </c>
       <c r="W111" t="n">
-        <v>0.08329303562641144</v>
+        <v>0.02174490317702293</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4118061065673828</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.5148813128471375</v>
       </c>
       <c r="W112" t="n">
-        <v>0.06000864878296852</v>
+        <v>0.01062449812889099</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3950960636138916</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.3986924588680267</v>
       </c>
       <c r="W113" t="n">
-        <v>0.02023986168205738</v>
+        <v>1.293405875912867e-05</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3940849304199219</v>
       </c>
       <c r="V114" t="n">
-        <v>0.65655517578125</v>
+        <v>0.424409031867981</v>
       </c>
       <c r="W114" t="n">
-        <v>0.06889063119888306</v>
+        <v>0.0009195511229336262</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3932480812072754</v>
       </c>
       <c r="V115" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8678025007247925</v>
       </c>
       <c r="W115" t="n">
-        <v>0.3017584681510925</v>
+        <v>0.225201889872551</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3925919532775879</v>
       </c>
       <c r="V116" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.397717297077179</v>
       </c>
       <c r="W116" t="n">
-        <v>0.3023120760917664</v>
+        <v>2.62691482930677e-05</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.394467830657959</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8748324513435364</v>
       </c>
       <c r="W117" t="n">
-        <v>0.06130804121494293</v>
+        <v>0.230750173330307</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4213120937347412</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.8763471245765686</v>
       </c>
       <c r="W118" t="n">
-        <v>0.0003198380290996283</v>
+        <v>0.2070568799972534</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3931441307067871</v>
       </c>
       <c r="V119" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.4008845090866089</v>
       </c>
       <c r="W119" t="n">
-        <v>0.301766574382782</v>
+        <v>5.991345824440941e-05</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3937721252441406</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.5149575471878052</v>
       </c>
       <c r="W120" t="n">
-        <v>0.01441184803843498</v>
+        <v>0.01468590646982193</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3959298133850098</v>
       </c>
       <c r="V121" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4928534626960754</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1705389618873596</v>
+        <v>0.00939419399946928</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9389328956604004</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.5459510087966919</v>
       </c>
       <c r="W122" t="n">
-        <v>0.317338615655899</v>
+        <v>0.1544347703456879</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8928558826446533</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.4889606237411499</v>
       </c>
       <c r="W123" t="n">
-        <v>0.05665570497512817</v>
+        <v>0.1631313860416412</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8712520599365234</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.3975119292736053</v>
       </c>
       <c r="W124" t="n">
-        <v>0.03526939451694489</v>
+        <v>0.2244297116994858</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8765079975128174</v>
       </c>
       <c r="V125" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.8757529854774475</v>
       </c>
       <c r="W125" t="n">
-        <v>0.004867168143391609</v>
+        <v>5.700431984223542e-07</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.939467191696167</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.4989618360996246</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1917420625686646</v>
+        <v>0.1940449625253677</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8783500194549561</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.3973243832588196</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1601464003324509</v>
+        <v>0.231385663151741</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8748910427093506</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.3987401127815247</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1140944436192513</v>
+        <v>0.2267197072505951</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8698959350585938</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.5013641119003296</v>
       </c>
       <c r="W129" t="n">
-        <v>0.0433223657310009</v>
+        <v>0.1358157098293304</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9170200824737549</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.4949602484703064</v>
       </c>
       <c r="W130" t="n">
-        <v>0.06790215522050858</v>
+        <v>0.1781345009803772</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.877485990524292</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.5081100463867188</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1318066269159317</v>
+        <v>0.1364385932683945</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8765499591827393</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.4112432301044464</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2511685490608215</v>
+        <v>0.2165103554725647</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9003729820251465</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.8572735786437988</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1372552067041397</v>
+        <v>0.001857558614574373</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9889321327209473</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.540503203868866</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1704304814338684</v>
+        <v>0.2010885030031204</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8949708938598633</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.403483659029007</v>
       </c>
       <c r="W135" t="n">
-        <v>0.04510872811079025</v>
+        <v>0.241559699177742</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8726749420166016</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.8709027767181396</v>
       </c>
       <c r="W136" t="n">
-        <v>0.03615435585379601</v>
+        <v>3.140569788229186e-06</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8729720115661621</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.8865923881530762</v>
       </c>
       <c r="W137" t="n">
-        <v>0.04790712147951126</v>
+        <v>0.000185514654731378</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9146978855133057</v>
       </c>
       <c r="V138" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.8802276849746704</v>
       </c>
       <c r="W138" t="n">
-        <v>0.3179996013641357</v>
+        <v>0.001188194728456438</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8773729801177979</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.3973259329795837</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1316739320755005</v>
+        <v>0.2304451614618301</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8759720325469971</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.5157719850540161</v>
       </c>
       <c r="W140" t="n">
-        <v>0.03440897539258003</v>
+        <v>0.1297440677881241</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8754050731658936</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.8708224892616272</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1674333065748215</v>
+        <v>2.10000744118588e-05</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5399000644683838</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.4879975914955139</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01857821829617023</v>
+        <v>0.002693866612389684</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5236990451812744</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.5093690752983093</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01721358485519886</v>
+        <v>0.0002053480420727283</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5232110023498535</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.8671225905418396</v>
       </c>
       <c r="W144" t="n">
-        <v>0.004268962889909744</v>
+        <v>0.1182751804590225</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.519927978515625</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.4966079592704773</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01485608424991369</v>
+        <v>0.0005438232910819352</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5235288143157959</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.5078401565551758</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0001190704642795026</v>
+        <v>0.0002461339754518121</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5909957885742188</v>
       </c>
       <c r="V147" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.8959196209907532</v>
       </c>
       <c r="W147" t="n">
-        <v>0.03705211728811264</v>
+        <v>0.09297854453325272</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5227761268615723</v>
       </c>
       <c r="V148" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.5285592079162598</v>
       </c>
       <c r="W148" t="n">
-        <v>0.08129076659679413</v>
+        <v>3.344402648508549e-05</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5235641002655029</v>
       </c>
       <c r="V149" t="n">
-        <v>0.541418194770813</v>
+        <v>0.3992086946964264</v>
       </c>
       <c r="W149" t="n">
-        <v>0.000318768696160987</v>
+        <v>0.01546426676213741</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5246720314025879</v>
       </c>
       <c r="V150" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4897066354751587</v>
       </c>
       <c r="W150" t="n">
-        <v>0.1790969371795654</v>
+        <v>0.001222578925080597</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5201470851898193</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.8744327425956726</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0002912972413469106</v>
+        <v>0.1255183219909668</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5376501083374023</v>
       </c>
       <c r="V152" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4991874694824219</v>
       </c>
       <c r="W152" t="n">
-        <v>0.06044654548168182</v>
+        <v>0.001479374594055116</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5202908515930176</v>
       </c>
       <c r="V153" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.485788106918335</v>
       </c>
       <c r="W153" t="n">
-        <v>0.02873137965798378</v>
+        <v>0.001190439332276583</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5224850177764893</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.8704392313957214</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01410814747214317</v>
+        <v>0.1210721358656883</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.525230884552002</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.4118952751159668</v>
       </c>
       <c r="W155" t="n">
-        <v>0.02078177966177464</v>
+        <v>0.01284496020525694</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5228221416473389</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.4944205284118652</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0142121622338891</v>
+        <v>0.0008066516602411866</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5226728916168213</v>
       </c>
       <c r="V157" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.8683286905288696</v>
       </c>
       <c r="W157" t="n">
-        <v>0.07701843976974487</v>
+        <v>0.1194779276847839</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5214531421661377</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.4014598727226257</v>
       </c>
       <c r="W158" t="n">
-        <v>5.930049883318134e-05</v>
+        <v>0.01439838483929634</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5248031616210938</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.5017642378807068</v>
       </c>
       <c r="W159" t="n">
-        <v>0.005516091827303171</v>
+        <v>0.0005307919927872717</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5237479209899902</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.9012269973754883</v>
       </c>
       <c r="W160" t="n">
-        <v>0.001360619207844138</v>
+        <v>0.1424904465675354</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5237541198730469</v>
       </c>
       <c r="V161" t="n">
-        <v>0.466268926858902</v>
+        <v>0.4980078041553497</v>
       </c>
       <c r="W161" t="n">
-        <v>0.00330454739741981</v>
+        <v>0.0006628728006035089</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3977518081665039</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.5149989724159241</v>
       </c>
       <c r="W162" t="n">
-        <v>0.09024733304977417</v>
+        <v>0.01374689768999815</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4476318359375</v>
       </c>
       <c r="V163" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8838483691215515</v>
       </c>
       <c r="W163" t="n">
-        <v>0.009379450231790543</v>
+        <v>0.190284863114357</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3946318626403809</v>
       </c>
       <c r="V164" t="n">
-        <v>0.944080114364624</v>
+        <v>0.5256526470184326</v>
       </c>
       <c r="W164" t="n">
-        <v>0.3018933832645416</v>
+        <v>0.01716644503176212</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3954398632049561</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4129472970962524</v>
       </c>
       <c r="W165" t="n">
-        <v>6.660837971139699e-05</v>
+        <v>0.0003065102500841022</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.401526927947998</v>
       </c>
       <c r="V166" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.504638135433197</v>
       </c>
       <c r="W166" t="n">
-        <v>0.002624706597998738</v>
+        <v>0.01063192076981068</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.5442850589752197</v>
       </c>
       <c r="V167" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.397355854511261</v>
       </c>
       <c r="W167" t="n">
-        <v>0.03013281710445881</v>
+        <v>0.02158819139003754</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3942511081695557</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.4907577633857727</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01960091479122639</v>
+        <v>0.009313534945249557</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4507031440734863</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.5057271122932434</v>
       </c>
       <c r="W169" t="n">
-        <v>0.002219839952886105</v>
+        <v>0.003027637023478746</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.396899938583374</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.870969831943512</v>
       </c>
       <c r="W170" t="n">
-        <v>0.01370833441615105</v>
+        <v>0.2247422635555267</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3937578201293945</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.8699303269386292</v>
       </c>
       <c r="W171" t="n">
-        <v>0.01459993235766888</v>
+        <v>0.2267402559518814</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3956081867218018</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.8673434853553772</v>
       </c>
       <c r="W172" t="n">
-        <v>0.003034869907423854</v>
+        <v>0.2225341945886612</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.395007848739624</v>
       </c>
       <c r="V173" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.4980034232139587</v>
       </c>
       <c r="W173" t="n">
-        <v>0.164078950881958</v>
+        <v>0.01060808822512627</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4033420085906982</v>
       </c>
       <c r="V174" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.4033661186695099</v>
       </c>
       <c r="W174" t="n">
-        <v>0.001065570628270507</v>
+        <v>5.812959003037577e-10</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4185419082641602</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.507134735584259</v>
       </c>
       <c r="W175" t="n">
-        <v>0.01414011605083942</v>
+        <v>0.007848689332604408</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3974418640136719</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.8621299862861633</v>
       </c>
       <c r="W176" t="n">
-        <v>0.02071708627045155</v>
+        <v>0.2159350514411926</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4206490516662598</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.514703631401062</v>
       </c>
       <c r="W177" t="n">
-        <v>0.01298744510859251</v>
+        <v>0.008846264332532883</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3943798542022705</v>
       </c>
       <c r="V178" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.3992178440093994</v>
       </c>
       <c r="W178" t="n">
-        <v>0.1509815156459808</v>
+        <v>2.340614446438849e-05</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3962619304656982</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.4094761908054352</v>
       </c>
       <c r="W179" t="n">
-        <v>0.01981678605079651</v>
+        <v>0.0001746166817611083</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4160609245300293</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.8684803247451782</v>
       </c>
       <c r="W180" t="n">
-        <v>0.05798958986997604</v>
+        <v>0.204683318734169</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4114670753479004</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4939624667167664</v>
       </c>
       <c r="W181" t="n">
-        <v>6.554681749548763e-05</v>
+        <v>0.006805489771068096</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8887379169464111</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.4951590597629547</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1204998567700386</v>
+        <v>0.1549043208360672</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8711669445037842</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.5149471163749695</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1769167929887772</v>
+        <v>0.1268925666809082</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8774189949035645</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.8590607047080994</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1137800142168999</v>
+        <v>0.0003370268095750362</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9477601051330566</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.5150306820869446</v>
       </c>
       <c r="W185" t="n">
-        <v>0.2961156964302063</v>
+        <v>0.1872547566890717</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.875478982925415</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.4899449944496155</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2547650039196014</v>
+        <v>0.1486364603042603</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8856179714202881</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.8757196664810181</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1911299377679825</v>
+        <v>9.797643724596128e-05</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.874830961227417</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.410072922706604</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2220624387264252</v>
+        <v>0.216000035405159</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.936460018157959</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.5078023076057434</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1632208526134491</v>
+        <v>0.1837474256753922</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8793559074401855</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.497441828250885</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1335533708333969</v>
+        <v>0.1458583623170853</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8943660259246826</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.4015637934207916</v>
       </c>
       <c r="W191" t="n">
-        <v>0.05361815169453621</v>
+        <v>0.242854043841362</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.873978853225708</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.8676893711090088</v>
       </c>
       <c r="W192" t="n">
-        <v>0.07062524557113647</v>
+        <v>3.955758438678458e-05</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9335060119628906</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.8672868609428406</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2810513079166412</v>
+        <v>0.004384975880384445</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8959450721740723</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.5147467851638794</v>
       </c>
       <c r="W194" t="n">
-        <v>0.0645587369799614</v>
+        <v>0.1453121304512024</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8701391220092773</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.4023691713809967</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1631451696157455</v>
+        <v>0.218808725476265</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8728771209716797</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.5016453862190247</v>
       </c>
       <c r="W196" t="n">
-        <v>0.004334200173616409</v>
+        <v>0.137813001871109</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.970879077911377</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.8706850409507751</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2180865556001663</v>
+        <v>0.01003884524106979</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8842751979827881</v>
       </c>
       <c r="V198" t="n">
-        <v>0.672245979309082</v>
+        <v>0.500119686126709</v>
       </c>
       <c r="W198" t="n">
-        <v>0.04495638981461525</v>
+        <v>0.1475754529237747</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8763120174407959</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.5147813558578491</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2761760056018829</v>
+        <v>0.1307044178247452</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8683688640594482</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.870516300201416</v>
       </c>
       <c r="W200" t="n">
-        <v>0.02889864705502987</v>
+        <v>4.611481926986016e-06</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9519839286804199</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.5148903131484985</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2017921358346939</v>
+        <v>0.1910508275032043</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5467689037322998</v>
       </c>
       <c r="V202" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.868285596370697</v>
       </c>
       <c r="W202" t="n">
-        <v>0.05631526932120323</v>
+        <v>0.1033729836344719</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5952198505401611</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.4109572768211365</v>
       </c>
       <c r="W203" t="n">
-        <v>0.003551420522853732</v>
+        <v>0.03395269438624382</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5840129852294922</v>
       </c>
       <c r="V204" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.4999129772186279</v>
       </c>
       <c r="W204" t="n">
-        <v>0.1297164261341095</v>
+        <v>0.007072811480611563</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.525346040725708</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.4243241846561432</v>
       </c>
       <c r="W205" t="n">
-        <v>0.03047345578670502</v>
+        <v>0.0102054150775075</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5240237712860107</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.8926548957824707</v>
       </c>
       <c r="W206" t="n">
-        <v>0.004193035420030355</v>
+        <v>0.1358889043331146</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5269229412078857</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.8680726289749146</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0001727494964143261</v>
+        <v>0.1163831129670143</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5223240852355957</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.5150125622749329</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0003289240412414074</v>
+        <v>5.345836689230055e-05</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5264570713043213</v>
       </c>
       <c r="V209" t="n">
-        <v>0.350784033536911</v>
+        <v>0.5132123231887817</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0308610163629055</v>
+        <v>0.0001754233526298776</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5314280986785889</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4009447693824768</v>
       </c>
       <c r="W210" t="n">
-        <v>0.004242556635290384</v>
+        <v>0.0170258991420269</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5871717929840088</v>
       </c>
       <c r="V211" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.8936643004417419</v>
       </c>
       <c r="W211" t="n">
-        <v>0.03842580690979958</v>
+        <v>0.09393765777349472</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5258448123931885</v>
       </c>
       <c r="V212" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.4948246777057648</v>
       </c>
       <c r="W212" t="n">
-        <v>0.02096520364284515</v>
+        <v>0.0009622487705200911</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5282390117645264</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.4141752421855927</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01566108129918575</v>
+        <v>0.01301054377108812</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5271289348602295</v>
       </c>
       <c r="V214" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.5020091533660889</v>
       </c>
       <c r="W214" t="n">
-        <v>0.022978775203228</v>
+        <v>0.0006310034077614546</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5255260467529297</v>
       </c>
       <c r="V215" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.3986905515193939</v>
       </c>
       <c r="W215" t="n">
-        <v>0.06626668572425842</v>
+        <v>0.0160872433334589</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5622489452362061</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.8880476951599121</v>
       </c>
       <c r="W216" t="n">
-        <v>0.002327633090317249</v>
+        <v>0.1061448231339455</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5448958873748779</v>
       </c>
       <c r="V217" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.3975177407264709</v>
       </c>
       <c r="W217" t="n">
-        <v>0.06693858653306961</v>
+        <v>0.02172031812369823</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5228350162506104</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4244233667850494</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01422063354402781</v>
+        <v>0.009684852324426174</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5254170894622803</v>
       </c>
       <c r="V219" t="n">
-        <v>0.504324197769165</v>
+        <v>0.8744515776634216</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0004449100815691054</v>
+        <v>0.1218250766396523</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5275909900665283</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.3986747860908508</v>
       </c>
       <c r="W220" t="n">
-        <v>0.0005925243021920323</v>
+        <v>0.01661938801407814</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5326099395751953</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.8900778889656067</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01542311999946833</v>
+        <v>0.127783328294754</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3943140506744385</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.3973115086555481</v>
       </c>
       <c r="W222" t="n">
-        <v>0.06182549521327019</v>
+        <v>8.984754458651878e-06</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3931200504302979</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.8810997605323792</v>
       </c>
       <c r="W223" t="n">
-        <v>0.06160161271691322</v>
+        <v>0.2381241917610168</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3973660469055176</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4242731928825378</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01960079744458199</v>
+        <v>0.0007239945116452873</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3935370445251465</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.4237156510353088</v>
       </c>
       <c r="W225" t="n">
-        <v>0.08349091559648514</v>
+        <v>0.0009107482619583607</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3957359790802002</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.5148293972015381</v>
       </c>
       <c r="W226" t="n">
-        <v>5.700836845790036e-05</v>
+        <v>0.01418324187397957</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3999121189117432</v>
       </c>
       <c r="V227" t="n">
-        <v>0.534324586391449</v>
+        <v>0.4988273680210114</v>
       </c>
       <c r="W227" t="n">
-        <v>0.01806671172380447</v>
+        <v>0.009784226305782795</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4120779037475586</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.5149632692337036</v>
       </c>
       <c r="W228" t="n">
-        <v>0.008300867862999439</v>
+        <v>0.01058539841324091</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3984589576721191</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.8739818930625916</v>
       </c>
       <c r="W229" t="n">
-        <v>0.01332306582480669</v>
+        <v>0.2261220663785934</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3956389427185059</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.4022548794746399</v>
       </c>
       <c r="W230" t="n">
-        <v>0.02009045332670212</v>
+        <v>4.377061850391328e-05</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3974850177764893</v>
       </c>
       <c r="V231" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.4133312702178955</v>
       </c>
       <c r="W231" t="n">
-        <v>0.1479138880968094</v>
+        <v>0.0002511037164367735</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.399616003036499</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.8721402883529663</v>
       </c>
       <c r="W232" t="n">
-        <v>0.05943834409117699</v>
+        <v>0.2232791930437088</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3987529277801514</v>
       </c>
       <c r="V233" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.874232292175293</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1483469158411026</v>
+        <v>0.2260806262493134</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.452409029006958</v>
       </c>
       <c r="V234" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.8734795451164246</v>
       </c>
       <c r="W234" t="n">
-        <v>0.124516636133194</v>
+        <v>0.1773003786802292</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4006381034851074</v>
       </c>
       <c r="V235" t="n">
-        <v>0.375304102897644</v>
+        <v>0.4242574572563171</v>
       </c>
       <c r="W235" t="n">
-        <v>0.00064181158086285</v>
+        <v>0.0005578738637268543</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3996059894561768</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.8697522282600403</v>
       </c>
       <c r="W236" t="n">
-        <v>1.305502610193798e-05</v>
+        <v>0.2210374921560287</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3946049213409424</v>
       </c>
       <c r="V237" t="n">
-        <v>0.350296825170517</v>
+        <v>0.5011844038963318</v>
       </c>
       <c r="W237" t="n">
-        <v>0.001963207498192787</v>
+        <v>0.01135918591171503</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3952510356903076</v>
       </c>
       <c r="V238" t="n">
-        <v>0.782903790473938</v>
+        <v>0.4023391604423523</v>
       </c>
       <c r="W238" t="n">
-        <v>0.1502746641635895</v>
+        <v>5.024151323596016e-05</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3937821388244629</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.5164944529533386</v>
       </c>
       <c r="W239" t="n">
-        <v>0.07755173742771149</v>
+        <v>0.0150583116337657</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4432170391082764</v>
       </c>
       <c r="V240" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.3973580598831177</v>
       </c>
       <c r="W240" t="n">
-        <v>0.1388393491506577</v>
+        <v>0.002103046048432589</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3973960876464844</v>
       </c>
       <c r="V241" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.8680054545402527</v>
       </c>
       <c r="W241" t="n">
-        <v>0.01137974020093679</v>
+        <v>0.2214731723070145</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8966381549835205</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4228439331054688</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1540156304836273</v>
+        <v>0.2244809716939926</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8819739818572998</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4009239375591278</v>
       </c>
       <c r="W243" t="n">
-        <v>0.135661318898201</v>
+        <v>0.2314091473817825</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>1.420722007751465</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.5007341504096985</v>
       </c>
       <c r="W244" t="n">
-        <v>0.7732229828834534</v>
+        <v>0.8463776707649231</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9113409519195557</v>
       </c>
       <c r="V245" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.8687965869903564</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2744622528553009</v>
+        <v>0.001810022979043424</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.878180980682373</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.4957482218742371</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1316740214824677</v>
+        <v>0.1462548077106476</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8846957683563232</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.3973627686500549</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1465286165475845</v>
+        <v>0.2374934554100037</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9451801776885986</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.507745623588562</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1943659782409668</v>
+        <v>0.191348984837532</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8970258235931396</v>
       </c>
       <c r="V249" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.4121867716312408</v>
       </c>
       <c r="W249" t="n">
-        <v>0.002976280404254794</v>
+        <v>0.2350689023733139</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8848540782928467</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.3973311185836792</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2315268665552139</v>
+        <v>0.2376786321401596</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8989179134368896</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.8745759129524231</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2452929466962814</v>
+        <v>0.0005925329751335084</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8949408531188965</v>
       </c>
       <c r="V252" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.4028522968292236</v>
       </c>
       <c r="W252" t="n">
-        <v>0.002803856506943703</v>
+        <v>0.242151141166687</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8837718963623047</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4987592697143555</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1201203987002373</v>
+        <v>0.1482347249984741</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8889861106872559</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.8644689917564392</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1479313671588898</v>
+        <v>0.0006010890938341618</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8846259117126465</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.4231141805648804</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1442463845014572</v>
+        <v>0.2129930853843689</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9144301414489746</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.8809438943862915</v>
       </c>
       <c r="W256" t="n">
-        <v>0.06738092005252838</v>
+        <v>0.001121328794397414</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8886289596557617</v>
       </c>
       <c r="V257" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.8673582077026367</v>
       </c>
       <c r="W257" t="n">
-        <v>0.01099113374948502</v>
+        <v>0.000452444888651371</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8732168674468994</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.8925046920776367</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1804023534059525</v>
+        <v>0.0003720201784744859</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8916809558868408</v>
       </c>
       <c r="V259" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.8680866956710815</v>
       </c>
       <c r="W259" t="n">
-        <v>0.2925730049610138</v>
+        <v>0.0005566891049966216</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8843059539794922</v>
       </c>
       <c r="V260" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.4994025230407715</v>
       </c>
       <c r="W260" t="n">
-        <v>0.247382253408432</v>
+        <v>0.1481506526470184</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8851749897003174</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.867529571056366</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2271739989519119</v>
+        <v>0.0003113608108833432</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.551753044128418</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.3973384499549866</v>
       </c>
       <c r="W262" t="n">
-        <v>0.02125395461916924</v>
+        <v>0.02384386770427227</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5495140552520752</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.4032650291919708</v>
       </c>
       <c r="W263" t="n">
-        <v>0.03182300180196762</v>
+        <v>0.02138877846300602</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5789151191711426</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4986477494239807</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0164733063429594</v>
+        <v>0.006442850455641747</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5321547985076904</v>
       </c>
       <c r="V265" t="n">
-        <v>0.946087121963501</v>
+        <v>0.8719179630279541</v>
       </c>
       <c r="W265" t="n">
-        <v>0.1713399738073349</v>
+        <v>0.1154390051960945</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5266609191894531</v>
       </c>
       <c r="V266" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.3973509967327118</v>
       </c>
       <c r="W266" t="n">
-        <v>0.03093210235238075</v>
+        <v>0.01672105677425861</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5650289058685303</v>
       </c>
       <c r="V267" t="n">
-        <v>0.531548023223877</v>
+        <v>0.88052898645401</v>
       </c>
       <c r="W267" t="n">
-        <v>0.001120969536714256</v>
+        <v>0.09954030066728592</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5281529426574707</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.4942138493061066</v>
       </c>
       <c r="W268" t="n">
-        <v>0.01557402778416872</v>
+        <v>0.00115186208859086</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5819990634918213</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.3976928889751434</v>
       </c>
       <c r="W269" t="n">
-        <v>2.608191061881371e-05</v>
+        <v>0.03396876528859138</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5360510349273682</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.8712249398231506</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0255617517977953</v>
+        <v>0.112341545522213</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5286731719970703</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.8686013221740723</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0006128691020421684</v>
+        <v>0.1155511438846588</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.543071985244751</v>
       </c>
       <c r="V272" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.401466965675354</v>
       </c>
       <c r="W272" t="n">
-        <v>0.05769806355237961</v>
+        <v>0.0200519822537899</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5315060615539551</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.8862712383270264</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0003012361994478852</v>
+        <v>0.125858336687088</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5337588787078857</v>
       </c>
       <c r="V274" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.5000039339065552</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02336614765226841</v>
+        <v>0.001139396335929632</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5289969444274902</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.4033887386322021</v>
       </c>
       <c r="W275" t="n">
-        <v>0.02826342172920704</v>
+        <v>0.01577742211520672</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5275859832763672</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.3975197076797485</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01568024232983589</v>
+        <v>0.01691723614931107</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5296249389648438</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.5077601075172424</v>
       </c>
       <c r="W277" t="n">
-        <v>0.002659707562997937</v>
+        <v>0.0004780708404723555</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5280420780181885</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.4034593105316162</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01553898211568594</v>
+        <v>0.01552086602896452</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5275411605834961</v>
       </c>
       <c r="V279" t="n">
-        <v>0.514474630355835</v>
+        <v>0.4035705029964447</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0001707342162262648</v>
+        <v>0.01536872424185276</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5287988185882568</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.4961097240447998</v>
       </c>
       <c r="W280" t="n">
-        <v>0.002618236932903528</v>
+        <v>0.001068576937541366</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5344681739807129</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.4253317415714264</v>
       </c>
       <c r="W281" t="n">
-        <v>0.02192471921443939</v>
+        <v>0.01191076077520847</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4190528392791748</v>
       </c>
       <c r="V282" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.8995301127433777</v>
       </c>
       <c r="W282" t="n">
-        <v>0.2834516763687134</v>
+        <v>0.2308584153652191</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4036459922790527</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.900259256362915</v>
       </c>
       <c r="W283" t="n">
-        <v>0.002622966421768069</v>
+        <v>0.2466247379779816</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4000530242919922</v>
       </c>
       <c r="V284" t="n">
-        <v>0.514564037322998</v>
+        <v>0.4242396652698517</v>
       </c>
       <c r="W284" t="n">
-        <v>0.01311277225613594</v>
+        <v>0.0005849936278536916</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4007430076599121</v>
       </c>
       <c r="V285" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.498551219701767</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1675494015216827</v>
+        <v>0.009566446766257286</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4022669792175293</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.8769267201423645</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01255708560347557</v>
+        <v>0.2253018766641617</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4026319980621338</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.3973222076892853</v>
       </c>
       <c r="W287" t="n">
-        <v>0.002307171933352947</v>
+        <v>2.819387373165227e-05</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4033751487731934</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.4182551503181458</v>
       </c>
       <c r="W288" t="n">
-        <v>5.980854211884434e-08</v>
+        <v>0.0002214144478784874</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4058449268341064</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.5039477944374084</v>
       </c>
       <c r="W289" t="n">
-        <v>0.01165896281599998</v>
+        <v>0.009624172933399677</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3982319831848145</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.5017740726470947</v>
       </c>
       <c r="W290" t="n">
-        <v>0.02049034461379051</v>
+        <v>0.01072096452116966</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4024550914764404</v>
       </c>
       <c r="V291" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.8746950030326843</v>
       </c>
       <c r="W291" t="n">
-        <v>0.1627704650163651</v>
+        <v>0.2230105400085449</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4079198837280273</v>
       </c>
       <c r="V292" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.4236558079719543</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0007104709511622787</v>
+        <v>0.000247619318543002</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4028410911560059</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.4908625483512878</v>
       </c>
       <c r="W293" t="n">
-        <v>0.005624466110020876</v>
+        <v>0.007747776806354523</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3979809284210205</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8856567144393921</v>
       </c>
       <c r="W294" t="n">
-        <v>0.02056306786835194</v>
+        <v>0.2378276735544205</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3985970020294189</v>
       </c>
       <c r="V295" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.9001224637031555</v>
       </c>
       <c r="W295" t="n">
-        <v>0.002286108443513513</v>
+        <v>0.2515277862548828</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3992249965667725</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8583107590675354</v>
       </c>
       <c r="W296" t="n">
-        <v>0.01768418401479721</v>
+        <v>0.2107597440481186</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4122500419616699</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.3973275423049927</v>
       </c>
       <c r="W297" t="n">
-        <v>0.03839562088251114</v>
+        <v>0.0002226810029242188</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4023230075836182</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.880597710609436</v>
       </c>
       <c r="W298" t="n">
-        <v>0.002698976779356599</v>
+        <v>0.228746697306633</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4112908840179443</v>
       </c>
       <c r="V299" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.8693313598632812</v>
       </c>
       <c r="W299" t="n">
-        <v>0.1573588997125626</v>
+        <v>0.2098010778427124</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4020810127258301</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.8931724429130554</v>
       </c>
       <c r="W300" t="n">
-        <v>0.005733226891607046</v>
+        <v>0.2411707937717438</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4020869731903076</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.8701824545860291</v>
       </c>
       <c r="W301" t="n">
-        <v>2.462144038872793e-06</v>
+        <v>0.2191133797168732</v>
       </c>
     </row>
     <row r="302" spans="1:23">
